--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E840ACB0-834E-4534-9893-F51AAA195A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC265BA-93F0-4A76-9AB1-38B23EB49478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
   <si>
     <t>UC_N</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>~UC_Sets: R_E: AllRegions</t>
-  </si>
-  <si>
-    <t>~UC_T: LO</t>
   </si>
   <si>
     <t>ELC</t>
@@ -810,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -831,9 +828,7 @@
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4" t="s">
@@ -846,7 +841,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -861,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -869,14 +864,14 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -901,14 +896,14 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -927,26 +922,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -974,551 +969,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="C46" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1537,41 +1532,41 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>71</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>73</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="D4" t="s">
-        <v>78</v>
-      </c>
       <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
         <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1589,83 +1584,83 @@
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
         <v>80</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
         <v>80</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>81</v>
       </c>
-      <c r="K3" t="s">
-        <v>82</v>
-      </c>
       <c r="M3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N3" t="s">
+        <v>93</v>
+      </c>
+      <c r="O3" t="s">
         <v>94</v>
-      </c>
-      <c r="O3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4">
         <v>0.99999994999999997</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I4">
         <v>0.99999999999982303</v>
       </c>
       <c r="J4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N4">
         <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1677,51 +1672,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FED9B4-2CA3-4985-9D8A-5E0327A6DFB8}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.45">
@@ -1732,25 +1727,25 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4">
         <v>0.29960038929139898</v>
@@ -1758,10 +1753,10 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="H5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J5">
         <v>1</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC265BA-93F0-4A76-9AB1-38B23EB49478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E254E-98EC-4BA0-BD4F-AFC063D8AA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
@@ -807,7 +807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -828,7 +828,10 @@
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="str">
+        <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
+        <v>Not Required!</v>
+      </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="4" t="s">
@@ -1523,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32163C52-6108-47C7-8CBC-B57452B2F45A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8305882-DB88-430C-B141-E3D1C852F51B}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1575,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43FC9F9-7480-4F00-AD5D-07EC2FAB2D74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E473A8-0815-4287-8BFE-73A6DB9C60DB}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1657,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1669,10 +1672,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FED9B4-2CA3-4985-9D8A-5E0327A6DFB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3AA316-7415-4AD8-B257-360C6C829059}">
   <dimension ref="B2:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677E254E-98EC-4BA0-BD4F-AFC063D8AA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BEBC1-13AE-4213-AB7B-36C4364941A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8305882-DB88-430C-B141-E3D1C852F51B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154E6A3-7514-4EE0-BB15-DD846324DF8D}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E473A8-0815-4287-8BFE-73A6DB9C60DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E22D06-1811-44EB-A538-7B2FC6FA2573}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.2</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3AA316-7415-4AD8-B257-360C6C829059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF122203-931B-415A-A334-19CCC72E95D2}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586BEBC1-13AE-4213-AB7B-36C4364941A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE9650F-D4E1-4572-B1CF-2411A8B62F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154E6A3-7514-4EE0-BB15-DD846324DF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA22328-55C0-4CF0-B34A-E775FFD21409}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E22D06-1811-44EB-A538-7B2FC6FA2573}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A428-93D6-480C-8166-B6D5D9C488F0}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1660,7 +1660,7 @@
         <v>75</v>
       </c>
       <c r="N4">
-        <v>1.1999999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="O4" t="s">
         <v>95</v>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF122203-931B-415A-A334-19CCC72E95D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F406BD1A-C348-4F73-8445-346950749F6E}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE9650F-D4E1-4572-B1CF-2411A8B62F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E0009F-A3E9-4A6B-B4A4-98A9AB1A834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA22328-55C0-4CF0-B34A-E775FFD21409}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F307607-DEE8-4AB6-B4E5-386B28D15636}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A08A428-93D6-480C-8166-B6D5D9C488F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863523C-1A8D-4834-B75E-D41FF465B9EC}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F406BD1A-C348-4F73-8445-346950749F6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3084C-A9CA-411E-B669-B969098276EE}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E0009F-A3E9-4A6B-B4A4-98A9AB1A834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756026F-7384-4867-9706-3AD1F8F23E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F307607-DEE8-4AB6-B4E5-386B28D15636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B011D060-B1C2-49AA-A00E-F49DA98D968F}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E863523C-1A8D-4834-B75E-D41FF465B9EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3B60D-5998-417F-9C0A-E56A32BC560B}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3084C-A9CA-411E-B669-B969098276EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5F2C96-021E-4067-BF2A-82FE2D7FD007}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F756026F-7384-4867-9706-3AD1F8F23E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE566A1-43B1-4431-9871-9107EDDFF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B011D060-B1C2-49AA-A00E-F49DA98D968F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E100918-015C-4137-A090-48053E1D6138}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A3B60D-5998-417F-9C0A-E56A32BC560B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49679FCD-3E51-4AE1-941F-77369B33C228}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D5F2C96-021E-4067-BF2A-82FE2D7FD007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ADAE0D-38D1-4141-AC99-F2D2C4211193}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE566A1-43B1-4431-9871-9107EDDFF77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7B93C-A60E-454B-AD43-643729C800F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E100918-015C-4137-A090-48053E1D6138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC7DA2-C765-4333-9269-FBB8B5FE8AF3}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49679FCD-3E51-4AE1-941F-77369B33C228}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C79F611-A2CD-4E1B-883C-E53FCF0837EF}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0ADAE0D-38D1-4141-AC99-F2D2C4211193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64837AF3-1A06-4E3E-BF2D-9FF5C4EAED6C}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D7B93C-A60E-454B-AD43-643729C800F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44E63E-EDC7-497B-BE1B-1ED8EA7A8975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC7DA2-C765-4333-9269-FBB8B5FE8AF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C41B51-3241-4ED0-A9B4-29F986615CD4}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C79F611-A2CD-4E1B-883C-E53FCF0837EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CCBD7-826C-4AE7-80C2-C49C74EA7699}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64837AF3-1A06-4E3E-BF2D-9FF5C4EAED6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410439C5-8F3F-4DB8-9CEF-61F7B9A1B760}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B44E63E-EDC7-497B-BE1B-1ED8EA7A8975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0C7FE-F84F-4C12-B86A-420162ADD004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C41B51-3241-4ED0-A9B4-29F986615CD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A4CD8-497D-48E8-BC37-48257765AEEB}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D42CCBD7-826C-4AE7-80C2-C49C74EA7699}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677F29EF-219E-4C16-94E5-E82AD03E6688}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410439C5-8F3F-4DB8-9CEF-61F7B9A1B760}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38625E53-8113-43B3-BE84-24C2C894BFA8}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FB0C7FE-F84F-4C12-B86A-420162ADD004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B77B09-D265-4859-9567-45859A9CFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3A4CD8-497D-48E8-BC37-48257765AEEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2BC861-BFAA-4169-98AE-632ACC15AD94}">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{677F29EF-219E-4C16-94E5-E82AD03E6688}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28B2628-7B14-4C4D-87AD-558856B0CF7A}">
   <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1672,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38625E53-8113-43B3-BE84-24C2C894BFA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0649F080-8F00-472A-AB00-DA252A2E07DC}">
   <dimension ref="B2:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B77B09-D265-4859-9567-45859A9CFAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4A9E8E-6227-4497-8C4B-5C612F10ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
   <si>
     <t>UC_N</t>
   </si>
@@ -252,6 +252,9 @@
     <t>timeslice</t>
   </si>
   <si>
+    <t>~TimeSlices</t>
+  </si>
+  <si>
     <t>season</t>
   </si>
   <si>
@@ -276,7 +279,13 @@
     <t>AllH</t>
   </si>
   <si>
-    <t>~TimeSlices</t>
+    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
   </si>
   <si>
     <t>com_fr</t>
@@ -285,7 +294,7 @@
     <t>process</t>
   </si>
   <si>
-    <t>commodity</t>
+    <t>elc_spv-ITA</t>
   </si>
   <si>
     <t>AllSaAllH</t>
@@ -294,15 +303,12 @@
     <t>IMPNRGZ</t>
   </si>
   <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
     <t>elc_won-ITA</t>
   </si>
   <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
     <t>g_yrfr</t>
   </si>
   <si>
@@ -321,6 +327,9 @@
     <t>com_pkflx</t>
   </si>
   <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
     <t>ncap_afs</t>
   </si>
   <si>
@@ -328,16 +337,17 @@
   </si>
   <si>
     <t>hydro</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,8 +401,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <color rgb="FF969696"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +452,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19375F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F9FC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -457,6 +512,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -468,7 +553,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -484,6 +569,20 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -506,6 +605,171 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CB7EC7-1F68-171F-31B2-0B009EC53864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296862</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C443990C-7C60-E312-C004-32D329100DCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>296863</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33AC6C-8283-5470-62F3-CA067AC5C797}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5245100" y="12700"/>
+          <a:ext cx="990600" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -925,7 +1189,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -936,7 +1200,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -944,7 +1208,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1526,246 +1790,347 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2BC861-BFAA-4169-98AE-632ACC15AD94}">
-  <dimension ref="B2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6307A4F6-A1C2-4D4C-BCB9-2D3A0AE07999}">
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="6" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E11" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F11" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28B2628-7B14-4C4D-87AD-558856B0CF7A}">
-  <dimension ref="B2:O4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA17440C-CC77-4005-BA1A-3CFB7857E0F1}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="10.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.59765625" customWidth="1"/>
+    <col min="17" max="19" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="S10" s="20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="B11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="D11" s="14">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N3" t="s">
-        <v>93</v>
-      </c>
-      <c r="O3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>0.99999994999999997</v>
-      </c>
-      <c r="D4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4">
-        <v>0.99999999999982303</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="I11" s="14">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="M4" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4">
+      <c r="L11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="15">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="22">
         <v>1.2</v>
       </c>
-      <c r="O4" t="s">
-        <v>95</v>
+      <c r="S11" s="21" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0649F080-8F00-472A-AB00-DA252A2E07DC}">
-  <dimension ref="B2:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B57D84-2804-4295-812B-D5237A30D307}">
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+    </row>
+    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E11" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="M2" t="s">
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>81</v>
-      </c>
-      <c r="N3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="B4">
+      <c r="M11" s="14">
+        <v>0.29960038929139898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="18">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" t="s">
-        <v>82</v>
-      </c>
-      <c r="O4">
-        <v>0.29960038929139898</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
-      <c r="H5" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4A9E8E-6227-4497-8C4B-5C612F10ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4D6303-B583-46FA-9FCD-27A6A4D72051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -627,7 +627,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CB7EC7-1F68-171F-31B2-0B009EC53864}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F894B09-552E-2F8C-FA5F-5FAD32B094B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +682,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C443990C-7C60-E312-C004-32D329100DCE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151D6F93-26DF-9123-0A69-CBC7ED91875E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -737,7 +737,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD33AC6C-8283-5470-62F3-CA067AC5C797}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFD79D8-07AA-9FAB-23BC-0C4890D73046}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6307A4F6-A1C2-4D4C-BCB9-2D3A0AE07999}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D7D0C-7117-4403-951A-412E86F4D0C8}">
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1863,7 +1863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA17440C-CC77-4005-BA1A-3CFB7857E0F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A63BE-B82B-46CC-88CF-4C1B6B4AF5BD}">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2011,7 +2011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B57D84-2804-4295-812B-D5237A30D307}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB75D2DE-4CA8-49C1-AF77-873B2E712FCB}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4D6303-B583-46FA-9FCD-27A6A4D72051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D7EAC8-5932-4488-ADAD-BD44257BE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>AllH</t>
-  </si>
-  <si>
-    <t>VERVESTACKS - the open USE platform · Powered by data · Shaped by vision · Guided by intuition · Fueled by passion</t>
   </si>
   <si>
     <t>~TFM_DINS-AT</t>
@@ -343,11 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,35 +394,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="7"/>
-      <color rgb="FF969696"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,26 +418,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19375F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4F81BD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7F9FC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -512,36 +460,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -553,7 +471,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -569,20 +487,6 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Heading 2" xfId="2" builtinId="17"/>
@@ -605,171 +509,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F894B09-552E-2F8C-FA5F-5FAD32B094B5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296862</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{151D6F93-26DF-9123-0A69-CBC7ED91875E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296863</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFD79D8-07AA-9FAB-23BC-0C4890D73046}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5245100" y="12700"/>
-          <a:ext cx="990600" cy="254000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,7 +928,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>69</v>
@@ -1200,7 +939,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
@@ -1208,7 +947,7 @@
         <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1790,347 +1529,273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D7D0C-7117-4403-951A-412E86F4D0C8}">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4E990-1C49-4E7D-8A0D-01CF2CAEF283}">
+  <dimension ref="B9:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="6" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28A63BE-B82B-46CC-88CF-4C1B6B4AF5BD}">
-  <dimension ref="A1:S11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A772BA40-8F91-4E3B-B5F7-FE5D9AF39388}">
+  <dimension ref="B9:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="10.59765625" customWidth="1"/>
-    <col min="12" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.59765625" customWidth="1"/>
-    <col min="17" max="19" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="12" t="s">
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="S10" s="20" t="s">
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="B11" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.99999999999980893</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0.99999999999979439</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="15">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q11" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11" s="22">
-        <v>1.2</v>
-      </c>
-      <c r="S11" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB75D2DE-4CA8-49C1-AF77-873B2E712FCB}">
-  <dimension ref="A1:M12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8B5435-6A8F-47AF-937F-2F66F64432B2}">
+  <dimension ref="B9:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="13.06640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.59765625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="9" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B9" s="11" t="s">
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G10" t="s">
         <v>80</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="12" t="s">
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
         <v>1</v>
       </c>
-      <c r="C11" s="16">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.29960038929139898</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I11" s="16">
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="K11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="14">
-        <v>0.29960038929139898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="G12" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="18">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3D7EAC8-5932-4488-ADAD-BD44257BE5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E15681-07C1-492D-8667-C1AE4799DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF4E990-1C49-4E7D-8A0D-01CF2CAEF283}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04129281-DD94-41C3-8B01-ECC72FD647D0}">
   <dimension ref="B9:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A772BA40-8F91-4E3B-B5F7-FE5D9AF39388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9665B180-2444-4594-B11E-68884C7EAEB0}">
   <dimension ref="B9:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC8B5435-6A8F-47AF-937F-2F66F64432B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299B339-E137-432A-B3C2-43F27D85222F}">
   <dimension ref="B9:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54E15681-07C1-492D-8667-C1AE4799DFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6299D596-902E-4B5B-AA3F-8021FB70EC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +76,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -277,63 +293,6 @@
   </si>
   <si>
     <t>AllH</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -826,14 +785,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -847,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -862,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -870,21 +829,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>AllSaAllH</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -902,21 +861,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>AllSaAllH</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -928,26 +887,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -975,551 +934,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1529,270 +1488,50 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04129281-DD94-41C3-8B01-ECC72FD647D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A4F19-5731-410F-8031-BEC10A00CE32}">
   <dimension ref="B9:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9665B180-2444-4594-B11E-68884C7EAEB0}">
-  <dimension ref="B9:S11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
         <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>0.99999999999980893</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11">
-        <v>0.99999999999979439</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11">
-        <v>1.2</v>
-      </c>
-      <c r="S11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3299B339-E137-432A-B3C2-43F27D85222F}">
-  <dimension ref="B9:M12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.0000000000000002</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11">
-        <v>0.29960038929139898</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6299D596-902E-4B5B-AA3F-8021FB70EC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF501D-D1BD-49BA-A00B-2A966AB0047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
     <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
+    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
+    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
   <si>
     <t>UC_N</t>
   </si>
@@ -76,24 +78,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -293,6 +277,63 @@
   </si>
   <si>
     <t>AllH</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -785,14 +826,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -806,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -821,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -829,21 +870,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -861,21 +902,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -887,26 +928,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -934,551 +975,551 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
     </row>
@@ -1488,50 +1529,270 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85A4F19-5731-410F-8031-BEC10A00CE32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83419FDF-9EA0-4CF9-9912-2060E0EDB0C7}">
   <dimension ref="B9:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BDD6A3-8B5F-4B9A-A711-59AB75208DA1}">
+  <dimension ref="B9:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11">
+        <v>1.2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC42418-C431-4D17-B09F-F129C6D6F995}">
+  <dimension ref="B9:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
         <v>80</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1.0000000000000002</v>
       </c>
       <c r="D11" t="s">
         <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" t="s">
-        <v>83</v>
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11">
+        <v>0.29960038929139898</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF501D-D1BD-49BA-A00B-2A966AB0047F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A32D07-26A9-43DE-B0C2-13F768F332EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83419FDF-9EA0-4CF9-9912-2060E0EDB0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B9F35A-7720-4C3D-98E2-5490E1D1C98F}">
   <dimension ref="B9:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BDD6A3-8B5F-4B9A-A711-59AB75208DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB7B40-C729-4253-8580-31F5E45C110E}">
   <dimension ref="B9:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC42418-C431-4D17-B09F-F129C6D6F995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34082206-0B83-4F14-A643-39F422A466E9}">
   <dimension ref="B9:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41A32D07-26A9-43DE-B0C2-13F768F332EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E37721-B603-4C68-AC2F-711568F5E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63B9F35A-7720-4C3D-98E2-5490E1D1C98F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4134CA40-A3E3-4AB4-A6B6-A469538E8506}">
   <dimension ref="B9:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EB7B40-C729-4253-8580-31F5E45C110E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2478B525-CC70-4136-834F-CFB4FC075E99}">
   <dimension ref="B9:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1681,7 +1681,7 @@
         <v>84</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.99999999999979616</v>
       </c>
       <c r="O11" t="s">
         <v>85</v>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34082206-0B83-4F14-A643-39F422A466E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2ABF8D-EA84-42D0-8CF6-E93DDC07626D}">
   <dimension ref="B9:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E37721-B603-4C68-AC2F-711568F5E121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F69CD34-3010-4EAB-A640-D550EB738E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -1529,7 +1529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4134CA40-A3E3-4AB4-A6B6-A469538E8506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713D96B-BD78-4E41-AE41-6C32FEE5216C}">
   <dimension ref="B9:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1581,7 +1581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2478B525-CC70-4136-834F-CFB4FC075E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F654E-C0CE-4C59-9C61-683B5909F981}">
   <dimension ref="B9:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2ABF8D-EA84-42D0-8CF6-E93DDC07626D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8D3974-B006-4E5A-91FB-215BFE4ACEAC}">
   <dimension ref="B9:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F69CD34-3010-4EAB-A640-D550EB738E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
-    <sheet name="timeslice_def" sheetId="11" r:id="rId3"/>
-    <sheet name="re_profiles" sheetId="12" r:id="rId4"/>
-    <sheet name="load_shapes" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
   <si>
     <t>UC_N</t>
   </si>
@@ -78,6 +75,24 @@
     <t>day</t>
   </si>
   <si>
+    <t>daynight</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
+  </si>
+  <si>
+    <t>Night</t>
+  </si>
+  <si>
+    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
+  </si>
+  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -250,90 +265,6 @@
   </si>
   <si>
     <t>timeslice</t>
-  </si>
-  <si>
-    <t>~TimeSlices</t>
-  </si>
-  <si>
-    <t>season</t>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>daynite</t>
-  </si>
-  <si>
-    <t>wparent</t>
-  </si>
-  <si>
-    <t>dparent</t>
-  </si>
-  <si>
-    <t>AllS</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>AllH</t>
-  </si>
-  <si>
-    <t>~TFM_DINS-AT</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>com_fr</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>elc_spv-ITA</t>
-  </si>
-  <si>
-    <t>AllSaAllH</t>
-  </si>
-  <si>
-    <t>IMPNRGZ</t>
-  </si>
-  <si>
-    <t>elc_won-ITA</t>
-  </si>
-  <si>
-    <t>elc_wof-ITA</t>
-  </si>
-  <si>
-    <t>g_yrfr</t>
-  </si>
-  <si>
-    <t>elc_roadtransport</t>
-  </si>
-  <si>
-    <t>day_night</t>
-  </si>
-  <si>
-    <t>elc_buildings</t>
-  </si>
-  <si>
-    <t>elc_industry</t>
-  </si>
-  <si>
-    <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>~TFM_INS-AT</t>
-  </si>
-  <si>
-    <t>ncap_afs</t>
-  </si>
-  <si>
-    <t>pset_ci</t>
-  </si>
-  <si>
-    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -810,7 +741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -826,14 +757,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>Not Required!</v>
+        <v>~UC_T: LO</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -847,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -862,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -870,21 +801,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>AllSaAllH</v>
+        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -902,21 +833,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>AllSaAllH</v>
+        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -928,26 +859,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -975,825 +906,553 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C52" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713D96B-BD78-4E41-AE41-6C32FEE5216C}">
-  <dimension ref="B9:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F654E-C0CE-4C59-9C61-683B5909F981}">
-  <dimension ref="B9:S11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L9" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J10" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-      <c r="O10" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" t="s">
-        <v>95</v>
-      </c>
-      <c r="S10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.45">
-      <c r="B11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>0.99999999999980893</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11">
-        <v>0.99999999999979439</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11">
-        <v>0.99999999999979616</v>
-      </c>
-      <c r="O11" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R11">
-        <v>1.2</v>
-      </c>
-      <c r="S11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8D3974-B006-4E5A-91FB-215BFE4ACEAC}">
-  <dimension ref="B9:M12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" t="s">
-        <v>81</v>
-      </c>
-      <c r="K10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" t="s">
-        <v>84</v>
-      </c>
-      <c r="M11">
-        <v>0.29960038929139898</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.45">
-      <c r="G12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VerveStacks\assumptions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362C4DDC-1AB8-4928-9DC5-D61EAAF09EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9117AD42-041F-4C09-90BF-B57CFBD33636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="2" activeTab="2" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
   <sheets>
     <sheet name="ev_charging_uc" sheetId="9" r:id="rId1"/>
     <sheet name="customize" sheetId="10" r:id="rId2"/>
+    <sheet name="ts_annual" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="90">
   <si>
     <t>UC_N</t>
   </si>
@@ -75,24 +76,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>daynight</t>
-  </si>
-  <si>
-    <t>TimeSlices</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</t>
-  </si>
-  <si>
-    <t>Night</t>
-  </si>
-  <si>
-    <t>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</t>
-  </si>
-  <si>
     <t>~UC_Sets: R_E: AllRegions</t>
   </si>
   <si>
@@ -265,6 +248,66 @@
   </si>
   <si>
     <t>timeslice</t>
+  </si>
+  <si>
+    <t>~TFM_DINS-AT</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>com_fr</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>elc_spv-ITA</t>
+  </si>
+  <si>
+    <t>AllSaAllH</t>
+  </si>
+  <si>
+    <t>IMPNRGZ</t>
+  </si>
+  <si>
+    <t>elc_won-ITA</t>
+  </si>
+  <si>
+    <t>elc_wof-ITA</t>
+  </si>
+  <si>
+    <t>g_yrfr</t>
+  </si>
+  <si>
+    <t>elc_roadtransport</t>
+  </si>
+  <si>
+    <t>day_night</t>
+  </si>
+  <si>
+    <t>elc_buildings</t>
+  </si>
+  <si>
+    <t>elc_industry</t>
+  </si>
+  <si>
+    <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>~TFM_INS-AT</t>
+  </si>
+  <si>
+    <t>ncap_afs</t>
+  </si>
+  <si>
+    <t>pset_ci</t>
+  </si>
+  <si>
+    <t>AllS</t>
+  </si>
+  <si>
+    <t>hydro</t>
   </si>
 </sst>
 </file>
@@ -741,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEB9B52-0D25-4BAC-94A8-E3500D4397D3}">
   <dimension ref="B1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -757,14 +800,14 @@
     </row>
     <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="3" t="str">
         <f>IF(C13=C14,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -778,7 +821,7 @@
         <v>6</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -793,7 +836,7 @@
         <v>7</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
@@ -801,21 +844,21 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
         <f>F7</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>RaD,RaN,RaP,SaD,SaN,SaP,TaD,TaN,TaP,Tc0916h01,Tc0916h02,Tc0916h03,Tc0916h04,Tc0916h05,Tc0916h06,Tc0916h19,Tc0916h20,Tc0916h21,Tc0916h22,Tc0916h23,Tc0916h24,Tc0917h01,Tc0917h02,Tc0917h03,Tc0917h04,Tc0917h05,Tc0917h06,Tc0917h19,Tc0917h20,Tc0917h21,Tc0917h22,Tc0917h23,Tc0917h24,WaD,WaN,WaP,Wb0121h01,Wb0121h02,Wb0121h03,Wb0121h04,Wb0121h05,Wb0121h06,Wb0121h19,Wb0121h20,Wb0121h21,Wb0121h22,Wb0121h23,Wb0121h24,Wb0122h01,Wb0122h02,Wb0122h03,Wb0122h04,Wb0122h05,Wb0122h06,Wb0122h19,Wb0122h20,Wb0122h21,Wb0122h22,Wb0122h23,Wb0122h24</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -833,21 +876,21 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D8" t="str">
         <f>F8</f>
         <v>AuxStoIN</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,TaD,Tc0916h07,Tc0916h08,Tc0916h09,Tc0916h10,Tc0916h11,Tc0916h12,Tc0916h13,Tc0916h14,Tc0916h15,Tc0916h16,Tc0916h17,Tc0916h18,Tc0917h07,Tc0917h08,Tc0917h09,Tc0917h10,Tc0917h11,Tc0917h12,Tc0917h13,Tc0917h14,Tc0917h15,Tc0917h16,Tc0917h17,Tc0917h18,WaD,Wb0121h07,Wb0121h08,Wb0121h09,Wb0121h10,Wb0121h11,Wb0121h12,Wb0121h13,Wb0121h14,Wb0121h15,Wb0121h16,Wb0121h17,Wb0121h18,Wb0122h07,Wb0122h08,Wb0122h09,Wb0122h10,Wb0122h11,Wb0122h12,Wb0122h13,Wb0122h14,Wb0122h15,Wb0122h16,Wb0122h17,Wb0122h18</v>
+        <v>AllSaAllH</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -859,26 +902,26 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -906,553 +949,754 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C20" s="5"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C49" s="5"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C50" s="5"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE66080-3AD2-41CD-983A-B3F54F4509EA}">
+  <dimension ref="B9:AF12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>70</v>
+      </c>
+      <c r="V9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" t="s">
+        <v>72</v>
+      </c>
+      <c r="O10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S10" t="s">
+        <v>69</v>
+      </c>
+      <c r="T10" t="s">
+        <v>71</v>
+      </c>
+      <c r="V10" t="s">
+        <v>71</v>
+      </c>
+      <c r="W10" t="s">
+        <v>69</v>
+      </c>
+      <c r="X10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="5"/>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>0.99999999999980893</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11">
+        <v>0.99999999999979439</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M11" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>0.99999999999979616</v>
+      </c>
+      <c r="O11" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="S11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T11" t="s">
+        <v>80</v>
+      </c>
+      <c r="V11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W11" t="s">
+        <v>75</v>
+      </c>
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB11">
+        <v>0.29960038929139898</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE11">
+        <v>1.2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
+      <c r="V12" t="s">
+        <v>83</v>
+      </c>
+      <c r="W12" t="s">
+        <v>75</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F08E277-8F24-47BF-A8F2-210F4EAE7205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EB8553-B405-4BD2-B5FC-0D558B4FADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A10:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -710,8 +710,8 @@
     <row r="19" spans="3:13" ht="14.65" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="3:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="H21" s="3" t="str">
-        <f>IF(C11=C12,"Not Required!","~UC_T: LO")</f>
-        <v>~UC_T: LO</v>
+        <f>IF(H23=H24,"Not Required!","~UC_T: LO")</f>
+        <v>Not Required!</v>
       </c>
     </row>
     <row r="22" spans="3:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -761,8 +761,8 @@
         <v>9</v>
       </c>
       <c r="H23" t="str">
-        <f>C12</f>
-        <v>N</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,3,FALSE)</f>
+        <v>AllSaAllH</v>
       </c>
       <c r="I23">
         <f>1+I24</f>
@@ -793,8 +793,8 @@
         <v>9</v>
       </c>
       <c r="H24" t="str">
-        <f>C11</f>
-        <v>D</v>
+        <f>HLOOKUP($A$10,$D$10:$CU$12,2,FALSE)</f>
+        <v>AllSaAllH</v>
       </c>
       <c r="I24">
         <f>-$I$17</f>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57411031-AEE8-4B00-80C5-A90A770C736E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4A168-A189-4DE0-B4CF-877D2E22E445}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73EB8553-B405-4BD2-B5FC-0D558B4FADC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21996F2-916B-4064-9A45-6C2A97DF067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F4A168-A189-4DE0-B4CF-877D2E22E445}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246984B1-0387-4B7F-9CDF-346EF61F29E7}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1036,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="AM11" t="s">
         <v>45</v>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B21996F2-916B-4064-9A45-6C2A97DF067D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{142EFFB3-51B5-47BE-8D8C-B0CA1029886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>UC_N</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>com_pkflx</t>
+  </si>
+  <si>
+    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -810,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246984B1-0387-4B7F-9CDF-346EF61F29E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4D38E-5F2E-4E65-8439-9F9899840AB1}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -940,10 +943,10 @@
         <v>27</v>
       </c>
       <c r="AL10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1024,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s">
         <v>31</v>
@@ -1036,10 +1039,10 @@
         <v>22</v>
       </c>
       <c r="AL11">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="AM11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{142EFFB3-51B5-47BE-8D8C-B0CA1029886E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34776119-AD86-47E6-AFC1-6F314942CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -813,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A4D38E-5F2E-4E65-8439-9F9899840AB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D6555-9E00-4C10-9FE2-8278ACD5DE72}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34776119-AD86-47E6-AFC1-6F314942CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C076D1C-D83A-4D59-9594-1A8B86569F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>UC_N</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>com_pkflx</t>
-  </si>
-  <si>
-    <t>Elec</t>
   </si>
   <si>
     <t>ncap_afs</t>
@@ -813,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572D6555-9E00-4C10-9FE2-8278ACD5DE72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E787EB1-E6AD-4C92-9B21-671CC54BBC33}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -943,10 +940,10 @@
         <v>27</v>
       </c>
       <c r="AL10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM10" t="s">
         <v>44</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.45">
@@ -1027,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="AG11" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="AH11" t="s">
         <v>31</v>
@@ -1042,7 +1039,7 @@
         <v>1.2</v>
       </c>
       <c r="AM11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.45">

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C076D1C-D83A-4D59-9594-1A8B86569F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DE7BF9-2712-464E-8D59-045E2488F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E787EB1-E6AD-4C92-9B21-671CC54BBC33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D32428-21A2-4D6A-963A-80AA2F1D4DCD}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
+++ b/VerveStacks_ITA/SuppXLS/scen_tsparameters_ts_annual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{15DE7BF9-2712-464E-8D59-045E2488F652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D29DDE-C65E-4A18-843C-8DF1653C88E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="1" activeTab="1" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -810,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D32428-21A2-4D6A-963A-80AA2F1D4DCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFADE9-45A7-4099-983E-5D231D7BEE9D}">
   <dimension ref="A9:AM12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
